--- a/可乐花.xlsx
+++ b/可乐花.xlsx
@@ -1,223 +1,508 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangxin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="可乐花V1.1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
   <si>
     <t>更改内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把所有“嘟克”名字更改为“可乐花”</t>
   </si>
   <si>
     <t>登录注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>快捷登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换“嘟克”LOGO，改写为“可乐花”</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>点击返回到首页，需要带上渠道ID和推荐人推荐码</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>注册的时候添加推荐人推荐码字段，字段内容URL会自带，自动填充到输入框，如果没有用户可自行填写</t>
   </si>
   <si>
     <t>账号登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击返回到首页，需要带上渠道ID和推荐人推荐码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册的时候添加推荐人推荐码字段，字段内容URL会自带，自动填充到输入框，如果没有用户可自行填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把以前注册，密码登录去掉，只保留手机验证码快捷登录，并且加一个邀请码输入框，可选择填写</t>
+  </si>
+  <si>
+    <t>邀请码字段尚未添加</t>
   </si>
   <si>
     <t>广告轮播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>喇叭消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大额低息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉</t>
   </si>
   <si>
     <t>小额速贷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>信用卡贷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工薪贷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>火热推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>热门推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>更改为显示所有产品，单个产品根据返回字段区分火热、热门；点击单个产品的时候判断是否登录，如果没有登录则跳转到登录界面，附带URL里面的参数（渠道ID\推荐人推荐码）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贷款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贷款列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.贷款按钮更换为邀请；2.去掉原有的产品展示列表；3.显示奖励规则；4.根据后台动态表格显示产品分佣金额和分佣比例；5.分享（分享为分享链接，可复制链接或获取手机通讯录选择发送分享链接）</t>
   </si>
   <si>
     <t>我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>个人资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的佣金</t>
+  </si>
+  <si>
+    <t>列表显示我推荐的人放款产品和返佣金额，1.显示我赚取的佣金金额；2.输入提款账号提款；3.显示我的佣金明细</t>
   </si>
   <si>
     <t>浏览记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>还款提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时隐藏</t>
   </si>
   <si>
     <t>我的消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>关注公众号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>帮助中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>把意见反馈拿出来直接放到上一层同级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的佣金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时隐藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把以前注册，密码登录去掉，只保留手机验证码快捷登录，并且加一个邀请码输入框，可选择填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把所有“嘟克”名字更改为“可乐花”</t>
-  </si>
-  <si>
-    <t>更换“嘟克”LOGO，改写为“可乐花”</t>
-  </si>
-  <si>
-    <t>1.贷款按钮更换为邀请；2.去掉原有的产品展示列表；3.显示奖励规则；4.根据后台动态表格显示产品分佣金额和分佣比例；5.分享（分享为分享链接，可复制链接或获取手机通讯录选择发送分享链接）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表显示我推荐的人放款产品和返佣金额，1.显示我赚取的佣金金额；2.输入提款账号提款；3.显示我的佣金明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -225,34 +510,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -301,7 +881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +916,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,234 +1090,234 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="36.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="2:3">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" ht="40.5" spans="2:3">
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="2:4">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="67.5" spans="1:3">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="1:3">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A16:A24"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/可乐花.xlsx
+++ b/可乐花.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>模块</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>把以前注册，密码登录去掉，只保留手机验证码快捷登录，并且加一个邀请码输入框，可选择填写</t>
-  </si>
-  <si>
-    <t>邀请码字段尚未添加</t>
   </si>
   <si>
     <t>广告轮播</t>
@@ -146,8 +143,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -158,75 +155,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,16 +170,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +201,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,9 +237,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,20 +278,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,181 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,21 +511,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,9 +531,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,8 +582,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,26 +611,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,145 +619,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1102,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1135,7 +1138,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1143,7 +1146,7 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1155,15 +1158,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="2:4">
+    <row r="6" ht="40.5" spans="2:3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1171,143 +1171,143 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="67.5" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:3">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G24" s="5"/>
     </row>
